--- a/biology/Botanique/Citrus_swinglei/Citrus_swinglei.xlsx
+++ b/biology/Botanique/Citrus_swinglei/Citrus_swinglei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Citrus swinglei, le kumquat malais, est une espèce de kumquat ; un type d'agrume du genre Citrus, famille des Rutacées. Il est décrit pour la première fois par Burkill et Harms en 1931[1],[2],[3].   
-Citrus swinglei, de la péninsule Malaise où il est connu sous le nom de « tilleul de haie » (limau pagar ), possède des chromosomes de type E[4],[5]. Il a une fine peau sur les fruits plus gros que tous les autres kumquats[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citrus swinglei, le kumquat malais, est une espèce de kumquat ; un type d'agrume du genre Citrus, famille des Rutacées. Il est décrit pour la première fois par Burkill et Harms en 1931.   
+Citrus swinglei, de la péninsule Malaise où il est connu sous le nom de « tilleul de haie » (limau pagar ), possède des chromosomes de type E,. Il a une fine peau sur les fruits plus gros que tous les autres kumquats. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Atalantia polyandra
 Citrus polyandra
